--- a/hebrewOutputs/composites.xlsx
+++ b/hebrewOutputs/composites.xlsx
@@ -1062,16 +1062,16 @@
         <v>12</v>
       </c>
       <c r="G15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15">
         <v>24</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1190,13 +1190,13 @@
         <v>12</v>
       </c>
       <c r="G19">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19">
         <v>31</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
         <v>21</v>
@@ -1222,13 +1222,13 @@
         <v>12</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1318,13 +1318,13 @@
         <v>12</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" t="s">
         <v>21</v>
@@ -1606,13 +1606,13 @@
         <v>12</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -1670,7 +1670,7 @@
         <v>12</v>
       </c>
       <c r="G34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H34">
         <v>4</v>
@@ -1702,13 +1702,13 @@
         <v>12</v>
       </c>
       <c r="G35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H35">
         <v>4</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="s">
         <v>21</v>
@@ -1734,13 +1734,13 @@
         <v>12</v>
       </c>
       <c r="G36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -1766,13 +1766,13 @@
         <v>12</v>
       </c>
       <c r="G37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37">
         <v>0</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>12</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H39">
         <v>9</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39">
         <v>4</v>
@@ -1862,16 +1862,16 @@
         <v>12</v>
       </c>
       <c r="G40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40">
         <v>2</v>
       </c>
       <c r="I40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1926,13 +1926,13 @@
         <v>12</v>
       </c>
       <c r="G42">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42">
         <v>11</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J42" t="s">
         <v>21</v>
@@ -2118,13 +2118,13 @@
         <v>12</v>
       </c>
       <c r="G48">
+        <v>8</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
         <v>6</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>4</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -2182,13 +2182,13 @@
         <v>12</v>
       </c>
       <c r="G50">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H50">
         <v>4</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J50" t="s">
         <v>21</v>
@@ -2214,16 +2214,16 @@
         <v>64</v>
       </c>
       <c r="G51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H51">
         <v>3</v>
       </c>
       <c r="I51">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2310,13 +2310,13 @@
         <v>64</v>
       </c>
       <c r="G54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H54">
         <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J54">
         <v>1</v>
@@ -2342,13 +2342,13 @@
         <v>64</v>
       </c>
       <c r="G55">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H55">
         <v>5</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J55" t="s">
         <v>21</v>
@@ -2470,13 +2470,13 @@
         <v>64</v>
       </c>
       <c r="G59">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H59">
         <v>5</v>
       </c>
       <c r="I59">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J59">
         <v>4</v>
@@ -2534,16 +2534,16 @@
         <v>64</v>
       </c>
       <c r="G61">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="H61">
         <v>12</v>
       </c>
       <c r="I61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2566,13 +2566,13 @@
         <v>64</v>
       </c>
       <c r="G62">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="H62">
         <v>17</v>
       </c>
       <c r="I62">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
         <v>21</v>
@@ -2694,16 +2694,16 @@
         <v>64</v>
       </c>
       <c r="G66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H66">
         <v>2</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -2790,13 +2790,13 @@
         <v>64</v>
       </c>
       <c r="G69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H69">
         <v>5</v>
       </c>
       <c r="I69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>64</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H70">
         <v>8</v>
       </c>
       <c r="I70">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J70" t="s">
         <v>21</v>
@@ -2950,13 +2950,13 @@
         <v>64</v>
       </c>
       <c r="G74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H74">
         <v>0</v>
       </c>
       <c r="I74">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -2982,13 +2982,13 @@
         <v>64</v>
       </c>
       <c r="G75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H75">
         <v>0</v>
       </c>
       <c r="I75">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J75" t="s">
         <v>21</v>
@@ -3078,13 +3078,13 @@
         <v>64</v>
       </c>
       <c r="G78">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H78">
         <v>2</v>
       </c>
       <c r="I78">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J78">
         <v>1</v>
@@ -3142,13 +3142,13 @@
         <v>64</v>
       </c>
       <c r="G80">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H80">
         <v>2</v>
       </c>
       <c r="I80">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
         <v>21</v>
@@ -3174,16 +3174,16 @@
         <v>64</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H81">
         <v>8</v>
       </c>
       <c r="I81">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3238,13 +3238,13 @@
         <v>64</v>
       </c>
       <c r="G83">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H83">
         <v>8</v>
       </c>
       <c r="I83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J83" t="s">
         <v>21</v>
@@ -3270,13 +3270,13 @@
         <v>64</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H84">
         <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84">
         <v>1</v>
@@ -3302,13 +3302,13 @@
         <v>64</v>
       </c>
       <c r="G85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H85">
         <v>3</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="s">
         <v>21</v>
@@ -3334,16 +3334,16 @@
         <v>64</v>
       </c>
       <c r="G86">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H86">
         <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J86">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3398,7 +3398,7 @@
         <v>64</v>
       </c>
       <c r="G88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H88">
         <v>4</v>
@@ -3430,13 +3430,13 @@
         <v>79</v>
       </c>
       <c r="G89">
-        <v>0.40625</v>
+        <v>0.3793103448275862</v>
       </c>
       <c r="H89">
         <v>0.5</v>
       </c>
       <c r="I89">
-        <v>0.09375</v>
+        <v>0.1206896551724138</v>
       </c>
       <c r="J89" t="s">
         <v>21</v>
@@ -3462,13 +3462,13 @@
         <v>79</v>
       </c>
       <c r="G90">
-        <v>1.727272727272727</v>
+        <v>1.857142857142857</v>
       </c>
       <c r="H90">
         <v>2.714285714285714</v>
       </c>
       <c r="I90">
-        <v>0.9870129870129871</v>
+        <v>0.8571428571428572</v>
       </c>
       <c r="J90" t="s">
         <v>21</v>
@@ -3910,13 +3910,13 @@
         <v>12</v>
       </c>
       <c r="G104">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H104">
         <v>16</v>
       </c>
       <c r="I104">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J104">
         <v>15</v>
@@ -3942,16 +3942,16 @@
         <v>12</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H105">
         <v>3</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4038,13 +4038,13 @@
         <v>12</v>
       </c>
       <c r="G108">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H108">
         <v>23</v>
       </c>
       <c r="I108">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J108" t="s">
         <v>21</v>
@@ -4134,13 +4134,13 @@
         <v>12</v>
       </c>
       <c r="G111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H111">
         <v>3</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J111">
         <v>0</v>
@@ -4166,13 +4166,13 @@
         <v>12</v>
       </c>
       <c r="G112">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112">
         <v>3</v>
       </c>
       <c r="I112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J112" t="s">
         <v>21</v>
@@ -4326,13 +4326,13 @@
         <v>12</v>
       </c>
       <c r="G117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H117">
         <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -4390,13 +4390,13 @@
         <v>12</v>
       </c>
       <c r="G119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H119">
         <v>2</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
         <v>21</v>
@@ -4582,13 +4582,13 @@
         <v>12</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H125">
         <v>2</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -4678,13 +4678,13 @@
         <v>12</v>
       </c>
       <c r="G128">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H128">
         <v>13</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>7</v>
@@ -4710,13 +4710,13 @@
         <v>12</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H129">
         <v>0</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -4774,13 +4774,13 @@
         <v>12</v>
       </c>
       <c r="G131">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H131">
         <v>16</v>
       </c>
       <c r="I131">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
         <v>21</v>
@@ -4966,13 +4966,13 @@
         <v>12</v>
       </c>
       <c r="G137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H137">
         <v>8</v>
       </c>
       <c r="I137">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J137">
         <v>1</v>
@@ -5030,13 +5030,13 @@
         <v>12</v>
       </c>
       <c r="G139">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H139">
         <v>8</v>
       </c>
       <c r="I139">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J139" t="s">
         <v>21</v>
@@ -5062,13 +5062,13 @@
         <v>64</v>
       </c>
       <c r="G140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H140">
         <v>7</v>
       </c>
       <c r="I140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140">
         <v>2</v>
@@ -5158,13 +5158,13 @@
         <v>64</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H143">
         <v>0</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -5190,13 +5190,13 @@
         <v>64</v>
       </c>
       <c r="G144">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H144">
         <v>7</v>
       </c>
       <c r="I144">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J144" t="s">
         <v>21</v>
@@ -5638,13 +5638,13 @@
         <v>64</v>
       </c>
       <c r="G158">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H158">
         <v>3</v>
       </c>
       <c r="I158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J158">
         <v>2</v>
@@ -5670,13 +5670,13 @@
         <v>64</v>
       </c>
       <c r="G159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H159">
         <v>4</v>
       </c>
       <c r="I159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J159" t="s">
         <v>21</v>
@@ -5798,13 +5798,13 @@
         <v>64</v>
       </c>
       <c r="G163">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H163">
         <v>2</v>
       </c>
       <c r="I163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J163">
         <v>0</v>
@@ -5830,13 +5830,13 @@
         <v>64</v>
       </c>
       <c r="G164">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H164">
         <v>2</v>
       </c>
       <c r="I164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J164" t="s">
         <v>21</v>
@@ -5926,13 +5926,13 @@
         <v>64</v>
       </c>
       <c r="G167">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H167">
         <v>5</v>
       </c>
       <c r="I167">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J167">
         <v>3</v>
@@ -5990,13 +5990,13 @@
         <v>64</v>
       </c>
       <c r="G169">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H169">
         <v>5</v>
       </c>
       <c r="I169">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J169" t="s">
         <v>21</v>
@@ -6022,13 +6022,13 @@
         <v>64</v>
       </c>
       <c r="G170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H170">
         <v>0</v>
       </c>
       <c r="I170">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -6086,13 +6086,13 @@
         <v>64</v>
       </c>
       <c r="G172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H172">
         <v>0</v>
       </c>
       <c r="I172">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J172" t="s">
         <v>21</v>
@@ -6182,16 +6182,16 @@
         <v>64</v>
       </c>
       <c r="G175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H175">
         <v>2</v>
       </c>
       <c r="I175">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:10">
@@ -6246,13 +6246,13 @@
         <v>64</v>
       </c>
       <c r="G177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H177">
         <v>2</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="s">
         <v>21</v>
@@ -6278,13 +6278,13 @@
         <v>79</v>
       </c>
       <c r="G178">
-        <v>0.6458333333333334</v>
+        <v>0.625</v>
       </c>
       <c r="H178">
         <v>0.6875</v>
       </c>
       <c r="I178">
-        <v>0.04166666666666663</v>
+        <v>0.0625</v>
       </c>
       <c r="J178" t="s">
         <v>21</v>
@@ -6310,13 +6310,13 @@
         <v>79</v>
       </c>
       <c r="G179">
-        <v>5.583333333333333</v>
+        <v>5</v>
       </c>
       <c r="H179">
         <v>2.24</v>
       </c>
       <c r="I179">
-        <v>3.343333333333333</v>
+        <v>2.76</v>
       </c>
       <c r="J179" t="s">
         <v>21</v>
@@ -6438,13 +6438,13 @@
         <v>12</v>
       </c>
       <c r="G183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H183">
         <v>0</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -6566,7 +6566,7 @@
         <v>12</v>
       </c>
       <c r="G187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H187">
         <v>1</v>
@@ -6598,13 +6598,13 @@
         <v>12</v>
       </c>
       <c r="G188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H188">
         <v>0</v>
       </c>
       <c r="I188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J188">
         <v>0</v>
@@ -6726,13 +6726,13 @@
         <v>12</v>
       </c>
       <c r="G192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H192">
         <v>0</v>
       </c>
       <c r="I192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J192" t="s">
         <v>21</v>
@@ -6758,13 +6758,13 @@
         <v>12</v>
       </c>
       <c r="G193">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H193">
         <v>24</v>
       </c>
       <c r="I193">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J193">
         <v>13</v>
@@ -6822,13 +6822,13 @@
         <v>12</v>
       </c>
       <c r="G195">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195">
         <v>3</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -6886,13 +6886,13 @@
         <v>12</v>
       </c>
       <c r="G197">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H197">
         <v>29</v>
       </c>
       <c r="I197">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J197" t="s">
         <v>21</v>
@@ -7055,7 +7055,7 @@
         <v>1</v>
       </c>
       <c r="J202">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:10">
@@ -7142,13 +7142,13 @@
         <v>12</v>
       </c>
       <c r="G205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H205">
         <v>0</v>
       </c>
       <c r="I205">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -7238,13 +7238,13 @@
         <v>12</v>
       </c>
       <c r="G208">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H208">
         <v>5</v>
       </c>
       <c r="I208">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J208" t="s">
         <v>21</v>
@@ -7430,13 +7430,13 @@
         <v>12</v>
       </c>
       <c r="G214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H214">
         <v>0</v>
       </c>
       <c r="I214">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -7526,16 +7526,16 @@
         <v>12</v>
       </c>
       <c r="G217">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H217">
         <v>24</v>
       </c>
       <c r="I217">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J217">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="218" spans="1:10">
@@ -7814,16 +7814,16 @@
         <v>12</v>
       </c>
       <c r="G226">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="H226">
         <v>4</v>
       </c>
       <c r="I226">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J226">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:10">
@@ -7878,13 +7878,13 @@
         <v>12</v>
       </c>
       <c r="G228">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="H228">
         <v>5</v>
       </c>
       <c r="I228">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J228" t="s">
         <v>21</v>
@@ -7910,13 +7910,13 @@
         <v>64</v>
       </c>
       <c r="G229">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H229">
         <v>7</v>
       </c>
       <c r="I229">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J229">
         <v>3</v>
@@ -7974,13 +7974,13 @@
         <v>64</v>
       </c>
       <c r="G231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H231">
         <v>4</v>
       </c>
       <c r="I231">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J231">
         <v>0</v>
@@ -8006,13 +8006,13 @@
         <v>64</v>
       </c>
       <c r="G232">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H232">
         <v>3</v>
       </c>
       <c r="I232">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -8038,13 +8038,13 @@
         <v>64</v>
       </c>
       <c r="G233">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H233">
         <v>14</v>
       </c>
       <c r="I233">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J233" t="s">
         <v>21</v>
@@ -8166,16 +8166,16 @@
         <v>64</v>
       </c>
       <c r="G237">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H237">
         <v>4</v>
       </c>
       <c r="I237">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:10">
@@ -8239,7 +8239,7 @@
         <v>5</v>
       </c>
       <c r="J239">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:10">
@@ -8262,13 +8262,13 @@
         <v>64</v>
       </c>
       <c r="G240">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H240">
         <v>8</v>
       </c>
       <c r="I240">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J240" t="s">
         <v>21</v>
@@ -8486,13 +8486,13 @@
         <v>64</v>
       </c>
       <c r="G247">
+        <v>5</v>
+      </c>
+      <c r="H247">
+        <v>1</v>
+      </c>
+      <c r="I247">
         <v>4</v>
-      </c>
-      <c r="H247">
-        <v>1</v>
-      </c>
-      <c r="I247">
-        <v>3</v>
       </c>
       <c r="J247">
         <v>1</v>
@@ -8518,13 +8518,13 @@
         <v>64</v>
       </c>
       <c r="G248">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H248">
         <v>2</v>
       </c>
       <c r="I248">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J248" t="s">
         <v>21</v>
@@ -8870,13 +8870,13 @@
         <v>64</v>
       </c>
       <c r="G259">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H259">
         <v>2</v>
       </c>
       <c r="I259">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -8934,13 +8934,13 @@
         <v>64</v>
       </c>
       <c r="G261">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H261">
         <v>2</v>
       </c>
       <c r="I261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J261" t="s">
         <v>21</v>
@@ -9030,13 +9030,13 @@
         <v>64</v>
       </c>
       <c r="G264">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H264">
         <v>1</v>
       </c>
       <c r="I264">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J264">
         <v>1</v>
@@ -9094,13 +9094,13 @@
         <v>64</v>
       </c>
       <c r="G266">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H266">
         <v>1</v>
       </c>
       <c r="I266">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J266" t="s">
         <v>21</v>
@@ -9126,13 +9126,13 @@
         <v>79</v>
       </c>
       <c r="G267">
-        <v>1.111111111111111</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="H267">
         <v>1.651162790697674</v>
       </c>
       <c r="I267">
-        <v>0.5400516795865633</v>
+        <v>0.7020102483247931</v>
       </c>
       <c r="J267" t="s">
         <v>21</v>
@@ -9158,13 +9158,13 @@
         <v>79</v>
       </c>
       <c r="G268">
-        <v>4.428571428571429</v>
+        <v>2.96551724137931</v>
       </c>
       <c r="H268">
         <v>7.142857142857143</v>
       </c>
       <c r="I268">
-        <v>2.714285714285714</v>
+        <v>4.177339901477833</v>
       </c>
       <c r="J268" t="s">
         <v>21</v>
@@ -9606,16 +9606,16 @@
         <v>12</v>
       </c>
       <c r="G282">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H282">
         <v>13</v>
       </c>
       <c r="I282">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="J282">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:10">
@@ -9670,13 +9670,13 @@
         <v>12</v>
       </c>
       <c r="G284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H284">
         <v>0</v>
       </c>
       <c r="I284">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>12</v>
       </c>
       <c r="G286">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="H286">
         <v>16</v>
       </c>
       <c r="I286">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="J286" t="s">
         <v>21</v>
@@ -9894,13 +9894,13 @@
         <v>12</v>
       </c>
       <c r="G291">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H291">
         <v>5</v>
       </c>
       <c r="I291">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J291">
         <v>2</v>
@@ -10054,13 +10054,13 @@
         <v>12</v>
       </c>
       <c r="G296">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H296">
         <v>1</v>
       </c>
       <c r="I296">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J296">
         <v>0</v>
@@ -10086,13 +10086,13 @@
         <v>12</v>
       </c>
       <c r="G297">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H297">
         <v>7</v>
       </c>
       <c r="I297">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J297" t="s">
         <v>21</v>
@@ -10150,13 +10150,13 @@
         <v>12</v>
       </c>
       <c r="G299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H299">
         <v>0</v>
       </c>
       <c r="I299">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -10246,13 +10246,13 @@
         <v>12</v>
       </c>
       <c r="G302">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H302">
         <v>1</v>
       </c>
       <c r="I302">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J302" t="s">
         <v>21</v>
@@ -10278,16 +10278,16 @@
         <v>12</v>
       </c>
       <c r="G303">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H303">
         <v>3</v>
       </c>
       <c r="I303">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:10">
@@ -10374,16 +10374,16 @@
         <v>12</v>
       </c>
       <c r="G306">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H306">
         <v>6</v>
       </c>
       <c r="I306">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:10">
@@ -10438,13 +10438,13 @@
         <v>12</v>
       </c>
       <c r="G308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308">
         <v>0</v>
       </c>
       <c r="I308">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J308">
         <v>0</v>
@@ -10470,13 +10470,13 @@
         <v>12</v>
       </c>
       <c r="G309">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H309">
         <v>10</v>
       </c>
       <c r="I309">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J309" t="s">
         <v>21</v>
@@ -10662,16 +10662,16 @@
         <v>12</v>
       </c>
       <c r="G315">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="H315">
         <v>5</v>
       </c>
       <c r="I315">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J315">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="316" spans="1:10">
@@ -10694,13 +10694,13 @@
         <v>12</v>
       </c>
       <c r="G316">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H316">
         <v>2</v>
       </c>
       <c r="I316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J316">
         <v>2</v>
@@ -10726,13 +10726,13 @@
         <v>12</v>
       </c>
       <c r="G317">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="H317">
         <v>7</v>
       </c>
       <c r="I317">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J317" t="s">
         <v>21</v>
@@ -10758,13 +10758,13 @@
         <v>64</v>
       </c>
       <c r="G318">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H318">
         <v>13</v>
       </c>
       <c r="I318">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J318">
         <v>7</v>
@@ -10822,13 +10822,13 @@
         <v>64</v>
       </c>
       <c r="G320">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H320">
         <v>2</v>
       </c>
       <c r="I320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J320">
         <v>0</v>
@@ -11014,16 +11014,16 @@
         <v>64</v>
       </c>
       <c r="G326">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H326">
         <v>6</v>
       </c>
       <c r="I326">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J326">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="327" spans="1:10">
@@ -11078,13 +11078,13 @@
         <v>64</v>
       </c>
       <c r="G328">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H328">
         <v>6</v>
       </c>
       <c r="I328">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J328">
         <v>2</v>
@@ -11110,13 +11110,13 @@
         <v>64</v>
       </c>
       <c r="G329">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H329">
         <v>12</v>
       </c>
       <c r="I329">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J329" t="s">
         <v>21</v>
@@ -11334,13 +11334,13 @@
         <v>64</v>
       </c>
       <c r="G336">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H336">
         <v>1</v>
       </c>
       <c r="I336">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J336">
         <v>0</v>
@@ -11366,13 +11366,13 @@
         <v>64</v>
       </c>
       <c r="G337">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H337">
         <v>1</v>
       </c>
       <c r="I337">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J337" t="s">
         <v>21</v>
@@ -11718,13 +11718,13 @@
         <v>64</v>
       </c>
       <c r="G348">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H348">
         <v>0</v>
       </c>
       <c r="I348">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J348">
         <v>0</v>
@@ -11782,13 +11782,13 @@
         <v>64</v>
       </c>
       <c r="G350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H350">
         <v>0</v>
       </c>
       <c r="I350">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J350" t="s">
         <v>21</v>
@@ -11814,13 +11814,13 @@
         <v>64</v>
       </c>
       <c r="G351">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H351">
         <v>4</v>
       </c>
       <c r="I351">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J351">
         <v>4</v>
@@ -11846,13 +11846,13 @@
         <v>64</v>
       </c>
       <c r="G352">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H352">
         <v>4</v>
       </c>
       <c r="I352">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J352" t="s">
         <v>21</v>
@@ -11974,13 +11974,13 @@
         <v>79</v>
       </c>
       <c r="G356">
-        <v>0.396551724137931</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="H356">
         <v>1.022727272727273</v>
       </c>
       <c r="I356">
-        <v>0.6261755485893417</v>
+        <v>0.3418762088974855</v>
       </c>
       <c r="J356" t="s">
         <v>21</v>
@@ -12006,13 +12006,13 @@
         <v>79</v>
       </c>
       <c r="G357">
-        <v>2.24</v>
+        <v>1.724137931034483</v>
       </c>
       <c r="H357">
         <v>2.178571428571428</v>
       </c>
       <c r="I357">
-        <v>0.06142857142857183</v>
+        <v>0.4544334975369457</v>
       </c>
       <c r="J357" t="s">
         <v>21</v>
@@ -12134,13 +12134,13 @@
         <v>12</v>
       </c>
       <c r="G361">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H361">
         <v>3</v>
       </c>
       <c r="I361">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J361">
         <v>0</v>
@@ -12262,13 +12262,13 @@
         <v>12</v>
       </c>
       <c r="G365">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H365">
         <v>3</v>
       </c>
       <c r="I365">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J365" t="s">
         <v>21</v>
@@ -12454,16 +12454,16 @@
         <v>12</v>
       </c>
       <c r="G371">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="H371">
         <v>25</v>
       </c>
       <c r="I371">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="J371">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="372" spans="1:10">
@@ -12486,16 +12486,16 @@
         <v>12</v>
       </c>
       <c r="G372">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H372">
         <v>4</v>
       </c>
       <c r="I372">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:10">
@@ -12518,13 +12518,13 @@
         <v>12</v>
       </c>
       <c r="G373">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H373">
         <v>0</v>
       </c>
       <c r="I373">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J373">
         <v>0</v>
@@ -12550,13 +12550,13 @@
         <v>12</v>
       </c>
       <c r="G374">
+        <v>4</v>
+      </c>
+      <c r="H374">
+        <v>1</v>
+      </c>
+      <c r="I374">
         <v>3</v>
-      </c>
-      <c r="H374">
-        <v>1</v>
-      </c>
-      <c r="I374">
-        <v>2</v>
       </c>
       <c r="J374">
         <v>0</v>
@@ -12582,13 +12582,13 @@
         <v>12</v>
       </c>
       <c r="G375">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H375">
         <v>30</v>
       </c>
       <c r="I375">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J375" t="s">
         <v>21</v>
@@ -12678,13 +12678,13 @@
         <v>12</v>
       </c>
       <c r="G378">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H378">
         <v>2</v>
       </c>
       <c r="I378">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J378">
         <v>0</v>
@@ -12710,13 +12710,13 @@
         <v>12</v>
       </c>
       <c r="G379">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H379">
         <v>2</v>
       </c>
       <c r="I379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J379" t="s">
         <v>21</v>
@@ -12902,13 +12902,13 @@
         <v>12</v>
       </c>
       <c r="G385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H385">
         <v>1</v>
       </c>
       <c r="I385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J385">
         <v>0</v>
@@ -12934,13 +12934,13 @@
         <v>12</v>
       </c>
       <c r="G386">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H386">
         <v>8</v>
       </c>
       <c r="I386">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J386" t="s">
         <v>21</v>
@@ -12998,7 +12998,7 @@
         <v>12</v>
       </c>
       <c r="G388">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H388">
         <v>2</v>
@@ -13007,7 +13007,7 @@
         <v>2</v>
       </c>
       <c r="J388">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:10">
@@ -13062,13 +13062,13 @@
         <v>12</v>
       </c>
       <c r="G390">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H390">
         <v>1</v>
       </c>
       <c r="I390">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390">
         <v>0</v>
@@ -13094,13 +13094,13 @@
         <v>12</v>
       </c>
       <c r="G391">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H391">
         <v>4</v>
       </c>
       <c r="I391">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J391" t="s">
         <v>21</v>
@@ -13126,7 +13126,7 @@
         <v>12</v>
       </c>
       <c r="G392">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H392">
         <v>2</v>
@@ -13158,16 +13158,16 @@
         <v>12</v>
       </c>
       <c r="G393">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H393">
         <v>4</v>
       </c>
       <c r="I393">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J393">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394" spans="1:10">
@@ -13222,13 +13222,13 @@
         <v>12</v>
       </c>
       <c r="G395">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="H395">
         <v>11</v>
       </c>
       <c r="I395">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J395">
         <v>5</v>
@@ -13318,13 +13318,13 @@
         <v>12</v>
       </c>
       <c r="G398">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H398">
         <v>19</v>
       </c>
       <c r="I398">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J398" t="s">
         <v>21</v>
@@ -13510,16 +13510,16 @@
         <v>12</v>
       </c>
       <c r="G404">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="H404">
         <v>5</v>
       </c>
       <c r="I404">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J404">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:10">
@@ -13542,16 +13542,16 @@
         <v>12</v>
       </c>
       <c r="G405">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H405">
         <v>6</v>
       </c>
       <c r="I405">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J405">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:10">
@@ -13574,13 +13574,13 @@
         <v>12</v>
       </c>
       <c r="G406">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H406">
         <v>11</v>
       </c>
       <c r="I406">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J406" t="s">
         <v>21</v>
@@ -13926,13 +13926,13 @@
         <v>64</v>
       </c>
       <c r="G417">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H417">
         <v>5</v>
       </c>
       <c r="I417">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J417">
         <v>2</v>
@@ -13958,13 +13958,13 @@
         <v>64</v>
       </c>
       <c r="G418">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H418">
         <v>9</v>
       </c>
       <c r="I418">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J418" t="s">
         <v>21</v>
@@ -14086,16 +14086,16 @@
         <v>64</v>
       </c>
       <c r="G422">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H422">
         <v>4</v>
       </c>
       <c r="I422">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J422">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="423" spans="1:10">
@@ -14118,13 +14118,13 @@
         <v>64</v>
       </c>
       <c r="G423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H423">
         <v>0</v>
       </c>
       <c r="I423">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J423">
         <v>0</v>
@@ -14214,13 +14214,13 @@
         <v>64</v>
       </c>
       <c r="G426">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H426">
         <v>5</v>
       </c>
       <c r="I426">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J426" t="s">
         <v>21</v>
@@ -14342,13 +14342,13 @@
         <v>64</v>
       </c>
       <c r="G430">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H430">
         <v>1</v>
       </c>
       <c r="I430">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J430">
         <v>0</v>
@@ -14374,13 +14374,13 @@
         <v>64</v>
       </c>
       <c r="G431">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H431">
         <v>3</v>
       </c>
       <c r="I431">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J431" t="s">
         <v>21</v>
@@ -14470,13 +14470,13 @@
         <v>64</v>
       </c>
       <c r="G434">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H434">
         <v>5</v>
       </c>
       <c r="I434">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J434">
         <v>1</v>
@@ -14534,13 +14534,13 @@
         <v>64</v>
       </c>
       <c r="G436">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H436">
         <v>5</v>
       </c>
       <c r="I436">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J436" t="s">
         <v>21</v>
@@ -14566,13 +14566,13 @@
         <v>64</v>
       </c>
       <c r="G437">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H437">
         <v>0</v>
       </c>
       <c r="I437">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J437">
         <v>0</v>
@@ -14630,13 +14630,13 @@
         <v>64</v>
       </c>
       <c r="G439">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H439">
         <v>0</v>
       </c>
       <c r="I439">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J439" t="s">
         <v>21</v>
@@ -14662,13 +14662,13 @@
         <v>64</v>
       </c>
       <c r="G440">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H440">
         <v>5</v>
       </c>
       <c r="I440">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J440">
         <v>4</v>
@@ -14694,13 +14694,13 @@
         <v>64</v>
       </c>
       <c r="G441">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H441">
         <v>5</v>
       </c>
       <c r="I441">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J441" t="s">
         <v>21</v>
@@ -14822,13 +14822,13 @@
         <v>79</v>
       </c>
       <c r="G445">
-        <v>0.4264705882352941</v>
+        <v>0.4477611940298508</v>
       </c>
       <c r="H445">
         <v>0.7924528301886793</v>
       </c>
       <c r="I445">
-        <v>0.3659822419533852</v>
+        <v>0.3446916361588285</v>
       </c>
       <c r="J445" t="s">
         <v>21</v>
@@ -14854,13 +14854,13 @@
         <v>79</v>
       </c>
       <c r="G446">
-        <v>3.041666666666667</v>
+        <v>5.466666666666667</v>
       </c>
       <c r="H446">
         <v>3.130434782608696</v>
       </c>
       <c r="I446">
-        <v>0.08876811594202927</v>
+        <v>2.336231884057971</v>
       </c>
       <c r="J446" t="s">
         <v>21</v>
@@ -15302,16 +15302,16 @@
         <v>12</v>
       </c>
       <c r="G460">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H460">
         <v>23</v>
       </c>
       <c r="I460">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J460">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="461" spans="1:10">
@@ -15334,16 +15334,16 @@
         <v>12</v>
       </c>
       <c r="G461">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H461">
         <v>7</v>
       </c>
       <c r="I461">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J461">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:10">
@@ -15366,13 +15366,13 @@
         <v>12</v>
       </c>
       <c r="G462">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H462">
         <v>2</v>
       </c>
       <c r="I462">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J462">
         <v>0</v>
@@ -15430,13 +15430,13 @@
         <v>12</v>
       </c>
       <c r="G464">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H464">
         <v>33</v>
       </c>
       <c r="I464">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J464" t="s">
         <v>21</v>
@@ -15526,13 +15526,13 @@
         <v>12</v>
       </c>
       <c r="G467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H467">
         <v>0</v>
       </c>
       <c r="I467">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J467">
         <v>0</v>
@@ -15558,13 +15558,13 @@
         <v>12</v>
       </c>
       <c r="G468">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H468">
         <v>1</v>
       </c>
       <c r="I468">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J468" t="s">
         <v>21</v>
@@ -15590,13 +15590,13 @@
         <v>12</v>
       </c>
       <c r="G469">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H469">
         <v>3</v>
       </c>
       <c r="I469">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J469">
         <v>1</v>
@@ -15782,13 +15782,13 @@
         <v>12</v>
       </c>
       <c r="G475">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H475">
         <v>4</v>
       </c>
       <c r="I475">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J475" t="s">
         <v>21</v>
@@ -15910,13 +15910,13 @@
         <v>12</v>
       </c>
       <c r="G479">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H479">
         <v>1</v>
       </c>
       <c r="I479">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J479">
         <v>1</v>
@@ -15942,13 +15942,13 @@
         <v>12</v>
       </c>
       <c r="G480">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H480">
         <v>1</v>
       </c>
       <c r="I480">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J480" t="s">
         <v>21</v>
@@ -15974,13 +15974,13 @@
         <v>12</v>
       </c>
       <c r="G481">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H481">
         <v>3</v>
       </c>
       <c r="I481">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J481">
         <v>1</v>
@@ -16006,13 +16006,13 @@
         <v>12</v>
       </c>
       <c r="G482">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H482">
         <v>1</v>
       </c>
       <c r="I482">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J482">
         <v>0</v>
@@ -16070,16 +16070,16 @@
         <v>12</v>
       </c>
       <c r="G484">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="H484">
         <v>13</v>
       </c>
       <c r="I484">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J484">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="485" spans="1:10">
@@ -16166,13 +16166,13 @@
         <v>12</v>
       </c>
       <c r="G487">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H487">
         <v>22</v>
       </c>
       <c r="I487">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J487" t="s">
         <v>21</v>
@@ -16358,16 +16358,16 @@
         <v>12</v>
       </c>
       <c r="G493">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="H493">
         <v>6</v>
       </c>
       <c r="I493">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J493">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="494" spans="1:10">
@@ -16390,13 +16390,13 @@
         <v>12</v>
       </c>
       <c r="G494">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H494">
         <v>7</v>
       </c>
       <c r="I494">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J494">
         <v>4</v>
@@ -16422,7 +16422,7 @@
         <v>12</v>
       </c>
       <c r="G495">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H495">
         <v>13</v>
@@ -16454,16 +16454,16 @@
         <v>64</v>
       </c>
       <c r="G496">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H496">
         <v>8</v>
       </c>
       <c r="I496">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J496">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="497" spans="1:10">
@@ -16518,13 +16518,13 @@
         <v>64</v>
       </c>
       <c r="G498">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H498">
         <v>3</v>
       </c>
       <c r="I498">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J498">
         <v>0</v>
@@ -16550,13 +16550,13 @@
         <v>64</v>
       </c>
       <c r="G499">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H499">
         <v>1</v>
       </c>
       <c r="I499">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J499">
         <v>1</v>
@@ -16582,13 +16582,13 @@
         <v>64</v>
       </c>
       <c r="G500">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H500">
         <v>12</v>
       </c>
       <c r="I500">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J500" t="s">
         <v>21</v>
@@ -16710,13 +16710,13 @@
         <v>64</v>
       </c>
       <c r="G504">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H504">
         <v>3</v>
       </c>
       <c r="I504">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J504">
         <v>1</v>
@@ -16774,13 +16774,13 @@
         <v>64</v>
       </c>
       <c r="G506">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H506">
         <v>3</v>
       </c>
       <c r="I506">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J506">
         <v>2</v>
@@ -16806,13 +16806,13 @@
         <v>64</v>
       </c>
       <c r="G507">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H507">
         <v>6</v>
       </c>
       <c r="I507">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J507" t="s">
         <v>21</v>
@@ -16934,16 +16934,16 @@
         <v>64</v>
       </c>
       <c r="G511">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H511">
         <v>2</v>
       </c>
       <c r="I511">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:10">
@@ -17030,16 +17030,16 @@
         <v>64</v>
       </c>
       <c r="G514">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H514">
         <v>2</v>
       </c>
       <c r="I514">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:10">
@@ -17190,13 +17190,13 @@
         <v>64</v>
       </c>
       <c r="G519">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H519">
         <v>2</v>
       </c>
       <c r="I519">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J519">
         <v>0</v>
@@ -17222,13 +17222,13 @@
         <v>64</v>
       </c>
       <c r="G520">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H520">
         <v>2</v>
       </c>
       <c r="I520">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J520" t="s">
         <v>21</v>
@@ -17414,16 +17414,16 @@
         <v>64</v>
       </c>
       <c r="G526">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H526">
         <v>9</v>
       </c>
       <c r="I526">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J526">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="527" spans="1:10">
@@ -17478,13 +17478,13 @@
         <v>64</v>
       </c>
       <c r="G528">
+        <v>4</v>
+      </c>
+      <c r="H528">
+        <v>11</v>
+      </c>
+      <c r="I528">
         <v>7</v>
-      </c>
-      <c r="H528">
-        <v>11</v>
-      </c>
-      <c r="I528">
-        <v>4</v>
       </c>
       <c r="J528" t="s">
         <v>21</v>
@@ -17510,13 +17510,13 @@
         <v>64</v>
       </c>
       <c r="G529">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H529">
         <v>1</v>
       </c>
       <c r="I529">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J529">
         <v>1</v>
@@ -17542,13 +17542,13 @@
         <v>64</v>
       </c>
       <c r="G530">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H530">
         <v>1</v>
       </c>
       <c r="I530">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J530" t="s">
         <v>21</v>
@@ -17574,13 +17574,13 @@
         <v>64</v>
       </c>
       <c r="G531">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H531">
         <v>3</v>
       </c>
       <c r="I531">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J531">
         <v>0</v>
@@ -17606,13 +17606,13 @@
         <v>64</v>
       </c>
       <c r="G532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H532">
         <v>0</v>
       </c>
       <c r="I532">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J532">
         <v>0</v>
@@ -17638,13 +17638,13 @@
         <v>64</v>
       </c>
       <c r="G533">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H533">
         <v>3</v>
       </c>
       <c r="I533">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J533" t="s">
         <v>21</v>
@@ -17670,13 +17670,13 @@
         <v>79</v>
       </c>
       <c r="G534">
-        <v>0.9</v>
+        <v>0.8070175438596491</v>
       </c>
       <c r="H534">
         <v>0.7962962962962963</v>
       </c>
       <c r="I534">
-        <v>0.1037037037037037</v>
+        <v>0.0107212475633528</v>
       </c>
       <c r="J534" t="s">
         <v>21</v>
@@ -17702,13 +17702,13 @@
         <v>79</v>
       </c>
       <c r="G535">
-        <v>3.318181818181818</v>
+        <v>2.961538461538462</v>
       </c>
       <c r="H535">
         <v>3.619047619047619</v>
       </c>
       <c r="I535">
-        <v>0.3008658008658007</v>
+        <v>0.6575091575091574</v>
       </c>
       <c r="J535" t="s">
         <v>21</v>
@@ -17830,13 +17830,13 @@
         <v>12</v>
       </c>
       <c r="G539">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H539">
         <v>0</v>
       </c>
       <c r="I539">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J539">
         <v>0</v>
@@ -17958,13 +17958,13 @@
         <v>12</v>
       </c>
       <c r="G543">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H543">
         <v>0</v>
       </c>
       <c r="I543">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J543" t="s">
         <v>21</v>
@@ -18150,16 +18150,16 @@
         <v>12</v>
       </c>
       <c r="G549">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H549">
         <v>18</v>
       </c>
       <c r="I549">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J549">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="550" spans="1:10">
@@ -18182,13 +18182,13 @@
         <v>12</v>
       </c>
       <c r="G550">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H550">
         <v>0</v>
       </c>
       <c r="I550">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J550">
         <v>0</v>
@@ -18214,13 +18214,13 @@
         <v>12</v>
       </c>
       <c r="G551">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H551">
         <v>3</v>
       </c>
       <c r="I551">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J551">
         <v>0</v>
@@ -18278,13 +18278,13 @@
         <v>12</v>
       </c>
       <c r="G553">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H553">
         <v>21</v>
       </c>
       <c r="I553">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J553" t="s">
         <v>21</v>
@@ -18694,13 +18694,13 @@
         <v>12</v>
       </c>
       <c r="G566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H566">
         <v>0</v>
       </c>
       <c r="I566">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J566">
         <v>0</v>
@@ -18790,13 +18790,13 @@
         <v>12</v>
       </c>
       <c r="G569">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H569">
         <v>4</v>
       </c>
       <c r="I569">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J569" t="s">
         <v>21</v>
@@ -18822,16 +18822,16 @@
         <v>12</v>
       </c>
       <c r="G570">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H570">
         <v>2</v>
       </c>
       <c r="I570">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:10">
@@ -18854,16 +18854,16 @@
         <v>12</v>
       </c>
       <c r="G571">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H571">
         <v>6</v>
       </c>
       <c r="I571">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:10">
@@ -18918,16 +18918,16 @@
         <v>12</v>
       </c>
       <c r="G573">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="H573">
         <v>3</v>
       </c>
       <c r="I573">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J573">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:10">
@@ -19014,7 +19014,7 @@
         <v>12</v>
       </c>
       <c r="G576">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="H576">
         <v>16</v>
@@ -19206,16 +19206,16 @@
         <v>12</v>
       </c>
       <c r="G582">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H582">
         <v>6</v>
       </c>
       <c r="I582">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J582">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="583" spans="1:10">
@@ -19238,13 +19238,13 @@
         <v>12</v>
       </c>
       <c r="G583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H583">
         <v>0</v>
       </c>
       <c r="I583">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J583">
         <v>0</v>
@@ -19462,13 +19462,13 @@
         <v>64</v>
       </c>
       <c r="G590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H590">
         <v>0</v>
       </c>
       <c r="I590">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J590">
         <v>0</v>
@@ -19526,13 +19526,13 @@
         <v>64</v>
       </c>
       <c r="G592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H592">
         <v>0</v>
       </c>
       <c r="I592">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J592" t="s">
         <v>21</v>
@@ -19558,13 +19558,13 @@
         <v>64</v>
       </c>
       <c r="G593">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H593">
         <v>4</v>
       </c>
       <c r="I593">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J593">
         <v>4</v>
@@ -19622,7 +19622,7 @@
         <v>64</v>
       </c>
       <c r="G595">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H595">
         <v>6</v>
@@ -19631,7 +19631,7 @@
         <v>1</v>
       </c>
       <c r="J595">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="596" spans="1:10">
@@ -19654,13 +19654,13 @@
         <v>64</v>
       </c>
       <c r="G596">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H596">
         <v>10</v>
       </c>
       <c r="I596">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J596" t="s">
         <v>21</v>
@@ -19814,13 +19814,13 @@
         <v>64</v>
       </c>
       <c r="G601">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H601">
         <v>1</v>
       </c>
       <c r="I601">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J601">
         <v>0</v>
@@ -19878,13 +19878,13 @@
         <v>64</v>
       </c>
       <c r="G603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H603">
         <v>0</v>
       </c>
       <c r="I603">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J603">
         <v>0</v>
@@ -20358,16 +20358,16 @@
         <v>64</v>
       </c>
       <c r="G618">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H618">
         <v>4</v>
       </c>
       <c r="I618">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J618">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="619" spans="1:10">
@@ -20390,13 +20390,13 @@
         <v>64</v>
       </c>
       <c r="G619">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H619">
         <v>4</v>
       </c>
       <c r="I619">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J619" t="s">
         <v>21</v>
@@ -20422,16 +20422,16 @@
         <v>64</v>
       </c>
       <c r="G620">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H620">
         <v>6</v>
       </c>
       <c r="I620">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:10">
@@ -20486,13 +20486,13 @@
         <v>64</v>
       </c>
       <c r="G622">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H622">
         <v>6</v>
       </c>
       <c r="I622">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J622" t="s">
         <v>21</v>
@@ -20518,13 +20518,13 @@
         <v>79</v>
       </c>
       <c r="G623">
-        <v>0.4313725490196079</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="H623">
         <v>0.7567567567567568</v>
       </c>
       <c r="I623">
-        <v>0.3253842077371489</v>
+        <v>0.04812129202373105</v>
       </c>
       <c r="J623" t="s">
         <v>21</v>
@@ -20550,13 +20550,13 @@
         <v>79</v>
       </c>
       <c r="G624">
-        <v>3.294117647058823</v>
+        <v>2.7</v>
       </c>
       <c r="H624">
         <v>3.0625</v>
       </c>
       <c r="I624">
-        <v>0.2316176470588234</v>
+        <v>0.3624999999999998</v>
       </c>
       <c r="J624" t="s">
         <v>21</v>
@@ -20678,13 +20678,13 @@
         <v>12</v>
       </c>
       <c r="G628">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H628">
         <v>1</v>
       </c>
       <c r="I628">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J628">
         <v>0</v>
@@ -20806,13 +20806,13 @@
         <v>12</v>
       </c>
       <c r="G632">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H632">
         <v>2</v>
       </c>
       <c r="I632">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J632" t="s">
         <v>21</v>
@@ -20998,16 +20998,16 @@
         <v>12</v>
       </c>
       <c r="G638">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H638">
         <v>23</v>
       </c>
       <c r="I638">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J638">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="639" spans="1:10">
@@ -21062,13 +21062,13 @@
         <v>12</v>
       </c>
       <c r="G640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H640">
         <v>1</v>
       </c>
       <c r="I640">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J640">
         <v>0</v>
@@ -21126,13 +21126,13 @@
         <v>12</v>
       </c>
       <c r="G642">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="H642">
         <v>27</v>
       </c>
       <c r="I642">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J642" t="s">
         <v>21</v>
@@ -21286,16 +21286,16 @@
         <v>12</v>
       </c>
       <c r="G647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H647">
         <v>1</v>
       </c>
       <c r="I647">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:10">
@@ -21478,13 +21478,13 @@
         <v>12</v>
       </c>
       <c r="G653">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H653">
         <v>8</v>
       </c>
       <c r="I653">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J653" t="s">
         <v>21</v>
@@ -21702,13 +21702,13 @@
         <v>12</v>
       </c>
       <c r="G660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H660">
         <v>0</v>
       </c>
       <c r="I660">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J660">
         <v>0</v>
@@ -21766,16 +21766,16 @@
         <v>12</v>
       </c>
       <c r="G662">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H662">
         <v>11</v>
       </c>
       <c r="I662">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J662">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="663" spans="1:10">
@@ -21862,13 +21862,13 @@
         <v>12</v>
       </c>
       <c r="G665">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H665">
         <v>11</v>
       </c>
       <c r="I665">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J665" t="s">
         <v>21</v>
@@ -22054,16 +22054,16 @@
         <v>12</v>
       </c>
       <c r="G671">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H671">
         <v>5</v>
       </c>
       <c r="I671">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J671">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="672" spans="1:10">
@@ -22086,13 +22086,13 @@
         <v>12</v>
       </c>
       <c r="G672">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H672">
         <v>3</v>
       </c>
       <c r="I672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J672">
         <v>1</v>
@@ -22118,13 +22118,13 @@
         <v>12</v>
       </c>
       <c r="G673">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="H673">
         <v>8</v>
       </c>
       <c r="I673">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J673" t="s">
         <v>21</v>
@@ -22150,16 +22150,16 @@
         <v>64</v>
       </c>
       <c r="G674">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H674">
         <v>10</v>
       </c>
       <c r="I674">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J674">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="675" spans="1:10">
@@ -22246,13 +22246,13 @@
         <v>64</v>
       </c>
       <c r="G677">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H677">
         <v>2</v>
       </c>
       <c r="I677">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J677">
         <v>1</v>
@@ -22278,13 +22278,13 @@
         <v>64</v>
       </c>
       <c r="G678">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H678">
         <v>13</v>
       </c>
       <c r="I678">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J678" t="s">
         <v>21</v>
@@ -22470,16 +22470,16 @@
         <v>64</v>
       </c>
       <c r="G684">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H684">
         <v>3</v>
       </c>
       <c r="I684">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J684">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="685" spans="1:10">
@@ -22502,13 +22502,13 @@
         <v>64</v>
       </c>
       <c r="G685">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H685">
         <v>8</v>
       </c>
       <c r="I685">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J685" t="s">
         <v>21</v>
@@ -23014,13 +23014,13 @@
         <v>64</v>
       </c>
       <c r="G701">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H701">
         <v>6</v>
       </c>
       <c r="I701">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J701">
         <v>2</v>
@@ -23078,13 +23078,13 @@
         <v>64</v>
       </c>
       <c r="G703">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H703">
         <v>6</v>
       </c>
       <c r="I703">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J703" t="s">
         <v>21</v>
@@ -23110,16 +23110,16 @@
         <v>64</v>
       </c>
       <c r="G704">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H704">
         <v>7</v>
       </c>
       <c r="I704">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J704">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="705" spans="1:10">
@@ -23174,13 +23174,13 @@
         <v>64</v>
       </c>
       <c r="G706">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="H706">
         <v>7</v>
       </c>
       <c r="I706">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J706" t="s">
         <v>21</v>
@@ -23270,16 +23270,16 @@
         <v>64</v>
       </c>
       <c r="G709">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H709">
         <v>4</v>
       </c>
       <c r="I709">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J709">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="710" spans="1:10">
@@ -23334,13 +23334,13 @@
         <v>64</v>
       </c>
       <c r="G711">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H711">
         <v>4</v>
       </c>
       <c r="I711">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J711" t="s">
         <v>21</v>
@@ -23366,13 +23366,13 @@
         <v>79</v>
       </c>
       <c r="G712">
-        <v>1.117647058823529</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="H712">
         <v>0.8444444444444444</v>
       </c>
       <c r="I712">
-        <v>0.273202614379085</v>
+        <v>0.0191919191919192</v>
       </c>
       <c r="J712" t="s">
         <v>21</v>
@@ -23398,13 +23398,13 @@
         <v>79</v>
       </c>
       <c r="G713">
-        <v>3.8</v>
+        <v>5.307692307692307</v>
       </c>
       <c r="H713">
         <v>3.611111111111111</v>
       </c>
       <c r="I713">
-        <v>0.1888888888888887</v>
+        <v>1.696581196581196</v>
       </c>
       <c r="J713" t="s">
         <v>21</v>
@@ -23846,16 +23846,16 @@
         <v>12</v>
       </c>
       <c r="G727">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H727">
         <v>15</v>
       </c>
       <c r="I727">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J727">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="728" spans="1:10">
@@ -23942,13 +23942,13 @@
         <v>12</v>
       </c>
       <c r="G730">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H730">
         <v>3</v>
       </c>
       <c r="I730">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J730">
         <v>0</v>
@@ -23974,13 +23974,13 @@
         <v>12</v>
       </c>
       <c r="G731">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H731">
         <v>18</v>
       </c>
       <c r="I731">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J731" t="s">
         <v>21</v>
@@ -24614,16 +24614,16 @@
         <v>12</v>
       </c>
       <c r="G751">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H751">
         <v>9</v>
       </c>
       <c r="I751">
+        <v>0</v>
+      </c>
+      <c r="J751">
         <v>3</v>
-      </c>
-      <c r="J751">
-        <v>4</v>
       </c>
     </row>
     <row r="752" spans="1:10">
@@ -24710,13 +24710,13 @@
         <v>12</v>
       </c>
       <c r="G754">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H754">
         <v>13</v>
       </c>
       <c r="I754">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J754" t="s">
         <v>21</v>
@@ -24998,16 +24998,16 @@
         <v>64</v>
       </c>
       <c r="G763">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H763">
         <v>14</v>
       </c>
       <c r="I763">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J763">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="764" spans="1:10">
@@ -25094,13 +25094,13 @@
         <v>64</v>
       </c>
       <c r="G766">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H766">
         <v>3</v>
       </c>
       <c r="I766">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J766">
         <v>2</v>
@@ -25126,13 +25126,13 @@
         <v>64</v>
       </c>
       <c r="G767">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H767">
         <v>17</v>
       </c>
       <c r="I767">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J767" t="s">
         <v>21</v>
@@ -25254,16 +25254,16 @@
         <v>64</v>
       </c>
       <c r="G771">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H771">
         <v>9</v>
       </c>
       <c r="I771">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J771">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="772" spans="1:10">
@@ -25318,13 +25318,13 @@
         <v>64</v>
       </c>
       <c r="G773">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H773">
         <v>6</v>
       </c>
       <c r="I773">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J773">
         <v>5</v>
@@ -25350,13 +25350,13 @@
         <v>64</v>
       </c>
       <c r="G774">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H774">
         <v>15</v>
       </c>
       <c r="I774">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J774" t="s">
         <v>21</v>
@@ -25574,16 +25574,16 @@
         <v>64</v>
       </c>
       <c r="G781">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H781">
         <v>4</v>
       </c>
       <c r="I781">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J781">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="782" spans="1:10">
@@ -25606,13 +25606,13 @@
         <v>64</v>
       </c>
       <c r="G782">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H782">
         <v>7</v>
       </c>
       <c r="I782">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J782" t="s">
         <v>21</v>
@@ -26118,7 +26118,7 @@
         <v>64</v>
       </c>
       <c r="G798">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H798">
         <v>2</v>
@@ -26182,7 +26182,7 @@
         <v>64</v>
       </c>
       <c r="G800">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H800">
         <v>2</v>
@@ -26214,13 +26214,13 @@
         <v>79</v>
       </c>
       <c r="G801">
-        <v>0.9019607843137255</v>
+        <v>0.92</v>
       </c>
       <c r="H801">
         <v>1.219512195121951</v>
       </c>
       <c r="I801">
-        <v>0.3175514108082257</v>
+        <v>0.2995121951219512</v>
       </c>
       <c r="J801" t="s">
         <v>21</v>
@@ -26246,13 +26246,13 @@
         <v>79</v>
       </c>
       <c r="G802">
-        <v>1.939393939393939</v>
+        <v>2.310344827586207</v>
       </c>
       <c r="H802">
         <v>2.956521739130435</v>
       </c>
       <c r="I802">
-        <v>1.017127799736495</v>
+        <v>0.6461769115442277</v>
       </c>
       <c r="J802" t="s">
         <v>21</v>
@@ -26374,13 +26374,13 @@
         <v>12</v>
       </c>
       <c r="G806">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H806">
         <v>3</v>
       </c>
       <c r="I806">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J806">
         <v>0</v>
@@ -26502,13 +26502,13 @@
         <v>12</v>
       </c>
       <c r="G810">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H810">
         <v>5</v>
       </c>
       <c r="I810">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J810" t="s">
         <v>21</v>
@@ -26694,16 +26694,16 @@
         <v>12</v>
       </c>
       <c r="G816">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H816">
         <v>15</v>
       </c>
       <c r="I816">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J816">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="817" spans="1:10">
@@ -26726,13 +26726,13 @@
         <v>12</v>
       </c>
       <c r="G817">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H817">
         <v>1</v>
       </c>
       <c r="I817">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J817">
         <v>0</v>
@@ -26758,13 +26758,13 @@
         <v>12</v>
       </c>
       <c r="G818">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H818">
         <v>2</v>
       </c>
       <c r="I818">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J818">
         <v>0</v>
@@ -26822,13 +26822,13 @@
         <v>12</v>
       </c>
       <c r="G820">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H820">
         <v>20</v>
       </c>
       <c r="I820">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J820" t="s">
         <v>21</v>
@@ -26854,13 +26854,13 @@
         <v>12</v>
       </c>
       <c r="G821">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H821">
         <v>2</v>
       </c>
       <c r="I821">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J821">
         <v>0</v>
@@ -26950,13 +26950,13 @@
         <v>12</v>
       </c>
       <c r="G824">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H824">
         <v>3</v>
       </c>
       <c r="I824">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J824" t="s">
         <v>21</v>
@@ -26982,16 +26982,16 @@
         <v>12</v>
       </c>
       <c r="G825">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H825">
         <v>2</v>
       </c>
       <c r="I825">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J825">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:10">
@@ -27174,13 +27174,13 @@
         <v>12</v>
       </c>
       <c r="G831">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H831">
         <v>6</v>
       </c>
       <c r="I831">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J831" t="s">
         <v>21</v>
@@ -27302,13 +27302,13 @@
         <v>12</v>
       </c>
       <c r="G835">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H835">
         <v>5</v>
       </c>
       <c r="I835">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J835">
         <v>3</v>
@@ -27334,13 +27334,13 @@
         <v>12</v>
       </c>
       <c r="G836">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H836">
         <v>5</v>
       </c>
       <c r="I836">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J836" t="s">
         <v>21</v>
@@ -27462,16 +27462,16 @@
         <v>12</v>
       </c>
       <c r="G840">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="H840">
         <v>10</v>
       </c>
       <c r="I840">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J840">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="841" spans="1:10">
@@ -27494,13 +27494,13 @@
         <v>12</v>
       </c>
       <c r="G841">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H841">
         <v>0</v>
       </c>
       <c r="I841">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J841">
         <v>0</v>
@@ -27558,13 +27558,13 @@
         <v>12</v>
       </c>
       <c r="G843">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="H843">
         <v>10</v>
       </c>
       <c r="I843">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J843" t="s">
         <v>21</v>
@@ -27750,13 +27750,13 @@
         <v>12</v>
       </c>
       <c r="G849">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H849">
         <v>4</v>
       </c>
       <c r="I849">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J849">
         <v>4</v>
@@ -27814,13 +27814,13 @@
         <v>12</v>
       </c>
       <c r="G851">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H851">
         <v>7</v>
       </c>
       <c r="I851">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J851" t="s">
         <v>21</v>
@@ -27942,13 +27942,13 @@
         <v>64</v>
       </c>
       <c r="G855">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H855">
         <v>0</v>
       </c>
       <c r="I855">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J855">
         <v>0</v>
@@ -27974,13 +27974,13 @@
         <v>64</v>
       </c>
       <c r="G856">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H856">
         <v>11</v>
       </c>
       <c r="I856">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J856" t="s">
         <v>21</v>
@@ -28111,7 +28111,7 @@
         <v>3</v>
       </c>
       <c r="J860">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="861" spans="1:10">
@@ -28166,16 +28166,16 @@
         <v>64</v>
       </c>
       <c r="G862">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="H862">
         <v>11</v>
       </c>
       <c r="I862">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J862">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="863" spans="1:10">
@@ -28198,7 +28198,7 @@
         <v>64</v>
       </c>
       <c r="G863">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="H863">
         <v>19</v>
@@ -28230,16 +28230,16 @@
         <v>64</v>
       </c>
       <c r="G864">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H864">
         <v>2</v>
       </c>
       <c r="I864">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:10">
@@ -28294,13 +28294,13 @@
         <v>64</v>
       </c>
       <c r="G866">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H866">
         <v>2</v>
       </c>
       <c r="I866">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J866" t="s">
         <v>21</v>
@@ -28358,13 +28358,13 @@
         <v>64</v>
       </c>
       <c r="G868">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H868">
         <v>0</v>
       </c>
       <c r="I868">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J868">
         <v>0</v>
@@ -28422,16 +28422,16 @@
         <v>64</v>
       </c>
       <c r="G870">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H870">
         <v>4</v>
       </c>
       <c r="I870">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J870">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:10">
@@ -28454,13 +28454,13 @@
         <v>64</v>
       </c>
       <c r="G871">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H871">
         <v>6</v>
       </c>
       <c r="I871">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J871" t="s">
         <v>21</v>
@@ -28582,13 +28582,13 @@
         <v>64</v>
       </c>
       <c r="G875">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H875">
         <v>6</v>
       </c>
       <c r="I875">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J875">
         <v>0</v>
@@ -28614,13 +28614,13 @@
         <v>64</v>
       </c>
       <c r="G876">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H876">
         <v>6</v>
       </c>
       <c r="I876">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J876" t="s">
         <v>21</v>
@@ -28710,16 +28710,16 @@
         <v>64</v>
       </c>
       <c r="G879">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H879">
         <v>2</v>
       </c>
       <c r="I879">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J879">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:10">
@@ -28774,13 +28774,13 @@
         <v>64</v>
       </c>
       <c r="G881">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="H881">
         <v>2</v>
       </c>
       <c r="I881">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J881" t="s">
         <v>21</v>
@@ -28806,13 +28806,13 @@
         <v>64</v>
       </c>
       <c r="G882">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H882">
         <v>1</v>
       </c>
       <c r="I882">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J882">
         <v>1</v>
@@ -28870,13 +28870,13 @@
         <v>64</v>
       </c>
       <c r="G884">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H884">
         <v>2</v>
       </c>
       <c r="I884">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J884" t="s">
         <v>21</v>
@@ -28902,13 +28902,13 @@
         <v>64</v>
       </c>
       <c r="G885">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H885">
         <v>1</v>
       </c>
       <c r="I885">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J885">
         <v>1</v>
@@ -28934,13 +28934,13 @@
         <v>64</v>
       </c>
       <c r="G886">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H886">
         <v>1</v>
       </c>
       <c r="I886">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J886" t="s">
         <v>21</v>
@@ -28966,13 +28966,13 @@
         <v>64</v>
       </c>
       <c r="G887">
+        <v>7</v>
+      </c>
+      <c r="H887">
+        <v>2</v>
+      </c>
+      <c r="I887">
         <v>5</v>
-      </c>
-      <c r="H887">
-        <v>2</v>
-      </c>
-      <c r="I887">
-        <v>3</v>
       </c>
       <c r="J887">
         <v>2</v>
@@ -29030,7 +29030,7 @@
         <v>64</v>
       </c>
       <c r="G889">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H889">
         <v>6</v>
@@ -29062,13 +29062,13 @@
         <v>79</v>
       </c>
       <c r="G890">
-        <v>0.8958333333333334</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="H890">
         <v>0.7058823529411765</v>
       </c>
       <c r="I890">
-        <v>0.1899509803921569</v>
+        <v>0.176470588235294</v>
       </c>
       <c r="J890" t="s">
         <v>21</v>
@@ -29094,13 +29094,13 @@
         <v>79</v>
       </c>
       <c r="G891">
-        <v>1.676470588235294</v>
+        <v>3.571428571428572</v>
       </c>
       <c r="H891">
         <v>1.806451612903226</v>
       </c>
       <c r="I891">
-        <v>0.1299810246679316</v>
+        <v>1.764976958525346</v>
       </c>
       <c r="J891" t="s">
         <v>21</v>
@@ -29222,13 +29222,13 @@
         <v>12</v>
       </c>
       <c r="G895">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H895">
         <v>0</v>
       </c>
       <c r="I895">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J895">
         <v>0</v>
@@ -29350,13 +29350,13 @@
         <v>12</v>
       </c>
       <c r="G899">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H899">
         <v>8</v>
       </c>
       <c r="I899">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J899" t="s">
         <v>21</v>
@@ -29542,16 +29542,16 @@
         <v>12</v>
       </c>
       <c r="G905">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="H905">
         <v>10</v>
       </c>
       <c r="I905">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J905">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="906" spans="1:10">
@@ -29574,16 +29574,16 @@
         <v>12</v>
       </c>
       <c r="G906">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H906">
         <v>6</v>
       </c>
       <c r="I906">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:10">
@@ -29606,13 +29606,13 @@
         <v>12</v>
       </c>
       <c r="G907">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H907">
         <v>4</v>
       </c>
       <c r="I907">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J907">
         <v>0</v>
@@ -29670,13 +29670,13 @@
         <v>12</v>
       </c>
       <c r="G909">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="H909">
         <v>20</v>
       </c>
       <c r="I909">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J909" t="s">
         <v>21</v>
@@ -29702,13 +29702,13 @@
         <v>12</v>
       </c>
       <c r="G910">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H910">
         <v>2</v>
       </c>
       <c r="I910">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J910">
         <v>0</v>
@@ -29798,13 +29798,13 @@
         <v>12</v>
       </c>
       <c r="G913">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H913">
         <v>2</v>
       </c>
       <c r="I913">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J913" t="s">
         <v>21</v>
@@ -29830,13 +29830,13 @@
         <v>12</v>
       </c>
       <c r="G914">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H914">
         <v>0</v>
       </c>
       <c r="I914">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J914">
         <v>0</v>
@@ -30022,13 +30022,13 @@
         <v>12</v>
       </c>
       <c r="G920">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H920">
         <v>4</v>
       </c>
       <c r="I920">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J920" t="s">
         <v>21</v>
@@ -30086,13 +30086,13 @@
         <v>12</v>
       </c>
       <c r="G922">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H922">
         <v>2</v>
       </c>
       <c r="I922">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J922">
         <v>0</v>
@@ -30150,16 +30150,16 @@
         <v>12</v>
       </c>
       <c r="G924">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H924">
         <v>4</v>
       </c>
       <c r="I924">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J924">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:10">
@@ -30310,16 +30310,16 @@
         <v>12</v>
       </c>
       <c r="G929">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H929">
         <v>13</v>
       </c>
       <c r="I929">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J929">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="930" spans="1:10">
@@ -30342,13 +30342,13 @@
         <v>12</v>
       </c>
       <c r="G930">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H930">
         <v>0</v>
       </c>
       <c r="I930">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J930">
         <v>0</v>
@@ -30406,13 +30406,13 @@
         <v>12</v>
       </c>
       <c r="G932">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H932">
         <v>15</v>
       </c>
       <c r="I932">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J932" t="s">
         <v>21</v>
@@ -30534,13 +30534,13 @@
         <v>12</v>
       </c>
       <c r="G936">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H936">
         <v>4</v>
       </c>
       <c r="I936">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J936">
         <v>4</v>
@@ -30566,13 +30566,13 @@
         <v>12</v>
       </c>
       <c r="G937">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H937">
         <v>4</v>
       </c>
       <c r="I937">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J937" t="s">
         <v>21</v>
@@ -30598,16 +30598,16 @@
         <v>12</v>
       </c>
       <c r="G938">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H938">
         <v>11</v>
       </c>
       <c r="I938">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J938">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="939" spans="1:10">
@@ -30630,13 +30630,13 @@
         <v>12</v>
       </c>
       <c r="G939">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H939">
         <v>4</v>
       </c>
       <c r="I939">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J939">
         <v>3</v>
@@ -30662,13 +30662,13 @@
         <v>12</v>
       </c>
       <c r="G940">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="H940">
         <v>15</v>
       </c>
       <c r="I940">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J940" t="s">
         <v>21</v>
@@ -30694,16 +30694,16 @@
         <v>64</v>
       </c>
       <c r="G941">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="H941">
         <v>10</v>
       </c>
       <c r="I941">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J941">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="942" spans="1:10">
@@ -30822,13 +30822,13 @@
         <v>64</v>
       </c>
       <c r="G945">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H945">
         <v>17</v>
       </c>
       <c r="I945">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J945" t="s">
         <v>21</v>
@@ -31014,16 +31014,16 @@
         <v>64</v>
       </c>
       <c r="G951">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H951">
         <v>7</v>
       </c>
       <c r="I951">
+        <v>2</v>
+      </c>
+      <c r="J951">
         <v>3</v>
-      </c>
-      <c r="J951">
-        <v>2</v>
       </c>
     </row>
     <row r="952" spans="1:10">
@@ -31046,13 +31046,13 @@
         <v>64</v>
       </c>
       <c r="G952">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H952">
         <v>16</v>
       </c>
       <c r="I952">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J952" t="s">
         <v>21</v>
@@ -31558,16 +31558,16 @@
         <v>64</v>
       </c>
       <c r="G968">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H968">
         <v>9</v>
       </c>
       <c r="I968">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J968">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="969" spans="1:10">
@@ -31622,13 +31622,13 @@
         <v>64</v>
       </c>
       <c r="G970">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H970">
         <v>9</v>
       </c>
       <c r="I970">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J970" t="s">
         <v>21</v>
@@ -31654,13 +31654,13 @@
         <v>64</v>
       </c>
       <c r="G971">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H971">
         <v>4</v>
       </c>
       <c r="I971">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J971">
         <v>4</v>
@@ -31718,13 +31718,13 @@
         <v>64</v>
       </c>
       <c r="G973">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="H973">
         <v>4</v>
       </c>
       <c r="I973">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J973" t="s">
         <v>21</v>
@@ -31814,13 +31814,13 @@
         <v>64</v>
       </c>
       <c r="G976">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="H976">
         <v>6</v>
       </c>
       <c r="I976">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J976">
         <v>3</v>
@@ -31846,13 +31846,13 @@
         <v>64</v>
       </c>
       <c r="G977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H977">
         <v>0</v>
       </c>
       <c r="I977">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J977">
         <v>0</v>
@@ -31878,13 +31878,13 @@
         <v>64</v>
       </c>
       <c r="G978">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H978">
         <v>6</v>
       </c>
       <c r="I978">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J978" t="s">
         <v>21</v>
@@ -31910,13 +31910,13 @@
         <v>79</v>
       </c>
       <c r="G979">
-        <v>0.609375</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="H979">
         <v>0.9491525423728814</v>
       </c>
       <c r="I979">
-        <v>0.3397775423728814</v>
+        <v>0.1824858757062147</v>
       </c>
       <c r="J979" t="s">
         <v>21</v>
@@ -31942,13 +31942,13 @@
         <v>79</v>
       </c>
       <c r="G980">
-        <v>2.433333333333333</v>
+        <v>1.585365853658537</v>
       </c>
       <c r="H980">
         <v>1.948717948717949</v>
       </c>
       <c r="I980">
-        <v>0.4846153846153844</v>
+        <v>0.363352095059412</v>
       </c>
       <c r="J980" t="s">
         <v>21</v>
@@ -32390,16 +32390,16 @@
         <v>12</v>
       </c>
       <c r="G994">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="H994">
         <v>16</v>
       </c>
       <c r="I994">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J994">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="995" spans="1:10">
@@ -32422,13 +32422,13 @@
         <v>12</v>
       </c>
       <c r="G995">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H995">
         <v>1</v>
       </c>
       <c r="I995">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J995">
         <v>0</v>
@@ -32518,13 +32518,13 @@
         <v>12</v>
       </c>
       <c r="G998">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="H998">
         <v>21</v>
       </c>
       <c r="I998">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J998" t="s">
         <v>21</v>
@@ -32614,13 +32614,13 @@
         <v>12</v>
       </c>
       <c r="G1001">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1001">
         <v>0</v>
       </c>
       <c r="I1001">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1001">
         <v>0</v>
@@ -32646,13 +32646,13 @@
         <v>12</v>
       </c>
       <c r="G1002">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1002">
         <v>0</v>
       </c>
       <c r="I1002">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1002" t="s">
         <v>21</v>
@@ -32678,13 +32678,13 @@
         <v>12</v>
       </c>
       <c r="G1003">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1003">
         <v>1</v>
       </c>
       <c r="I1003">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1003">
         <v>0</v>
@@ -32870,13 +32870,13 @@
         <v>12</v>
       </c>
       <c r="G1009">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1009">
         <v>3</v>
       </c>
       <c r="I1009">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1009" t="s">
         <v>21</v>
@@ -32934,13 +32934,13 @@
         <v>12</v>
       </c>
       <c r="G1011">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1011">
         <v>0</v>
       </c>
       <c r="I1011">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1011">
         <v>0</v>
@@ -32998,13 +32998,13 @@
         <v>12</v>
       </c>
       <c r="G1013">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1013">
         <v>4</v>
       </c>
       <c r="I1013">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1013">
         <v>2</v>
@@ -33030,13 +33030,13 @@
         <v>12</v>
       </c>
       <c r="G1014">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H1014">
         <v>4</v>
       </c>
       <c r="I1014">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1014" t="s">
         <v>21</v>
@@ -33062,13 +33062,13 @@
         <v>12</v>
       </c>
       <c r="G1015">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1015">
         <v>0</v>
       </c>
       <c r="I1015">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1015">
         <v>0</v>
@@ -33094,13 +33094,13 @@
         <v>12</v>
       </c>
       <c r="G1016">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1016">
         <v>0</v>
       </c>
       <c r="I1016">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1016">
         <v>0</v>
@@ -33158,16 +33158,16 @@
         <v>12</v>
       </c>
       <c r="G1018">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="H1018">
         <v>9</v>
       </c>
       <c r="I1018">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J1018">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="1019" spans="1:10">
@@ -33254,13 +33254,13 @@
         <v>12</v>
       </c>
       <c r="G1021">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="H1021">
         <v>9</v>
       </c>
       <c r="I1021">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J1021" t="s">
         <v>21</v>
@@ -33446,13 +33446,13 @@
         <v>12</v>
       </c>
       <c r="G1027">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1027">
         <v>4</v>
       </c>
       <c r="I1027">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1027">
         <v>2</v>
@@ -33510,13 +33510,13 @@
         <v>12</v>
       </c>
       <c r="G1029">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H1029">
         <v>6</v>
       </c>
       <c r="I1029">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1029" t="s">
         <v>21</v>
@@ -33551,7 +33551,7 @@
         <v>1</v>
       </c>
       <c r="J1030">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="1031" spans="1:10">
@@ -33798,16 +33798,16 @@
         <v>64</v>
       </c>
       <c r="G1038">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H1038">
         <v>2</v>
       </c>
       <c r="I1038">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J1038">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1039" spans="1:10">
@@ -33862,16 +33862,16 @@
         <v>64</v>
       </c>
       <c r="G1040">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1040">
         <v>6</v>
       </c>
       <c r="I1040">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1040">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1041" spans="1:10">
@@ -33894,13 +33894,13 @@
         <v>64</v>
       </c>
       <c r="G1041">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H1041">
         <v>8</v>
       </c>
       <c r="I1041">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J1041" t="s">
         <v>21</v>
@@ -33926,13 +33926,13 @@
         <v>64</v>
       </c>
       <c r="G1042">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1042">
         <v>2</v>
       </c>
       <c r="I1042">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1042">
         <v>1</v>
@@ -33990,13 +33990,13 @@
         <v>64</v>
       </c>
       <c r="G1044">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1044">
         <v>2</v>
       </c>
       <c r="I1044">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1044" t="s">
         <v>21</v>
@@ -34054,13 +34054,13 @@
         <v>64</v>
       </c>
       <c r="G1046">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1046">
         <v>2</v>
       </c>
       <c r="I1046">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1046">
         <v>0</v>
@@ -34118,16 +34118,16 @@
         <v>64</v>
       </c>
       <c r="G1048">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="H1048">
         <v>3</v>
       </c>
       <c r="I1048">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J1048">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1049" spans="1:10">
@@ -34150,13 +34150,13 @@
         <v>64</v>
       </c>
       <c r="G1049">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H1049">
         <v>5</v>
       </c>
       <c r="I1049">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1049" t="s">
         <v>21</v>
@@ -34278,16 +34278,16 @@
         <v>64</v>
       </c>
       <c r="G1053">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1053">
         <v>7</v>
       </c>
       <c r="I1053">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1053">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054" spans="1:10">
@@ -34310,13 +34310,13 @@
         <v>64</v>
       </c>
       <c r="G1054">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H1054">
         <v>7</v>
       </c>
       <c r="I1054">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1054" t="s">
         <v>21</v>
@@ -34502,16 +34502,16 @@
         <v>64</v>
       </c>
       <c r="G1060">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1060">
         <v>3</v>
       </c>
       <c r="I1060">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J1060">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1061" spans="1:10">
@@ -34566,13 +34566,13 @@
         <v>64</v>
       </c>
       <c r="G1062">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H1062">
         <v>3</v>
       </c>
       <c r="I1062">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J1062" t="s">
         <v>21</v>
@@ -34598,16 +34598,16 @@
         <v>64</v>
       </c>
       <c r="G1063">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1063">
         <v>6</v>
       </c>
       <c r="I1063">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1063">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1064" spans="1:10">
@@ -34630,13 +34630,13 @@
         <v>64</v>
       </c>
       <c r="G1064">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1064">
         <v>6</v>
       </c>
       <c r="I1064">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J1064" t="s">
         <v>21</v>
@@ -34662,13 +34662,13 @@
         <v>64</v>
       </c>
       <c r="G1065">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H1065">
         <v>4</v>
       </c>
       <c r="I1065">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1065">
         <v>1</v>
@@ -34726,13 +34726,13 @@
         <v>64</v>
       </c>
       <c r="G1067">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1067">
         <v>4</v>
       </c>
       <c r="I1067">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1067" t="s">
         <v>21</v>
@@ -34758,13 +34758,13 @@
         <v>79</v>
       </c>
       <c r="G1068">
-        <v>1.9</v>
+        <v>0.975</v>
       </c>
       <c r="H1068">
         <v>1.184210526315789</v>
       </c>
       <c r="I1068">
-        <v>0.7157894736842105</v>
+        <v>0.2092105263157894</v>
       </c>
       <c r="J1068" t="s">
         <v>21</v>
@@ -34790,13 +34790,13 @@
         <v>79</v>
       </c>
       <c r="G1069">
-        <v>3.35</v>
+        <v>4.266666666666667</v>
       </c>
       <c r="H1069">
         <v>3.882352941176471</v>
       </c>
       <c r="I1069">
-        <v>0.5323529411764705</v>
+        <v>0.384313725490196</v>
       </c>
       <c r="J1069" t="s">
         <v>21</v>
@@ -34822,16 +34822,16 @@
         <v>12</v>
       </c>
       <c r="G1070">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H1070">
         <v>5</v>
       </c>
       <c r="I1070">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1070">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1071" spans="1:10">
@@ -35046,13 +35046,13 @@
         <v>12</v>
       </c>
       <c r="G1077">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1077">
         <v>6</v>
       </c>
       <c r="I1077">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J1077" t="s">
         <v>21</v>
@@ -35238,16 +35238,16 @@
         <v>12</v>
       </c>
       <c r="G1083">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H1083">
         <v>16</v>
       </c>
       <c r="I1083">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J1083">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="1084" spans="1:10">
@@ -35270,16 +35270,16 @@
         <v>12</v>
       </c>
       <c r="G1084">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1084">
         <v>3</v>
       </c>
       <c r="I1084">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1084">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1085" spans="1:10">
@@ -35334,13 +35334,13 @@
         <v>12</v>
       </c>
       <c r="G1086">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H1086">
         <v>0</v>
       </c>
       <c r="I1086">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1086">
         <v>0</v>
@@ -35366,13 +35366,13 @@
         <v>12</v>
       </c>
       <c r="G1087">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1087">
         <v>21</v>
       </c>
       <c r="I1087">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1087" t="s">
         <v>21</v>
@@ -35398,16 +35398,16 @@
         <v>12</v>
       </c>
       <c r="G1088">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1088">
         <v>6</v>
       </c>
       <c r="I1088">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J1088">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1089" spans="1:10">
@@ -35462,13 +35462,13 @@
         <v>12</v>
       </c>
       <c r="G1090">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1090">
         <v>0</v>
       </c>
       <c r="I1090">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1090">
         <v>0</v>
@@ -35494,13 +35494,13 @@
         <v>12</v>
       </c>
       <c r="G1091">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H1091">
         <v>6</v>
       </c>
       <c r="I1091">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J1091" t="s">
         <v>21</v>
@@ -35526,13 +35526,13 @@
         <v>12</v>
       </c>
       <c r="G1092">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1092">
         <v>0</v>
       </c>
       <c r="I1092">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1092">
         <v>0</v>
@@ -35718,13 +35718,13 @@
         <v>12</v>
       </c>
       <c r="G1098">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1098">
         <v>3</v>
       </c>
       <c r="I1098">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1098" t="s">
         <v>21</v>
@@ -35782,13 +35782,13 @@
         <v>12</v>
       </c>
       <c r="G1100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1100">
         <v>1</v>
       </c>
       <c r="I1100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1100">
         <v>0</v>
@@ -35878,13 +35878,13 @@
         <v>12</v>
       </c>
       <c r="G1103">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H1103">
         <v>3</v>
       </c>
       <c r="I1103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1103" t="s">
         <v>21</v>
@@ -35910,13 +35910,13 @@
         <v>12</v>
       </c>
       <c r="G1104">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1104">
         <v>3</v>
       </c>
       <c r="I1104">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1104">
         <v>0</v>
@@ -36006,16 +36006,16 @@
         <v>12</v>
       </c>
       <c r="G1107">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H1107">
         <v>10</v>
       </c>
       <c r="I1107">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J1107">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1108" spans="1:10">
@@ -36102,13 +36102,13 @@
         <v>12</v>
       </c>
       <c r="G1110">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H1110">
         <v>15</v>
       </c>
       <c r="I1110">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1110" t="s">
         <v>21</v>
@@ -36294,16 +36294,16 @@
         <v>12</v>
       </c>
       <c r="G1116">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1116">
         <v>3</v>
       </c>
       <c r="I1116">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1116">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1117" spans="1:10">
@@ -36358,13 +36358,13 @@
         <v>12</v>
       </c>
       <c r="G1118">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H1118">
         <v>3</v>
       </c>
       <c r="I1118">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J1118" t="s">
         <v>21</v>
@@ -36390,16 +36390,16 @@
         <v>64</v>
       </c>
       <c r="G1119">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H1119">
         <v>12</v>
       </c>
       <c r="I1119">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1119">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="1120" spans="1:10">
@@ -36518,13 +36518,13 @@
         <v>64</v>
       </c>
       <c r="G1123">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1123">
         <v>13</v>
       </c>
       <c r="I1123">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1123" t="s">
         <v>21</v>
@@ -36646,13 +36646,13 @@
         <v>64</v>
       </c>
       <c r="G1127">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H1127">
         <v>14</v>
       </c>
       <c r="I1127">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J1127">
         <v>8</v>
@@ -36710,16 +36710,16 @@
         <v>64</v>
       </c>
       <c r="G1129">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H1129">
         <v>4</v>
       </c>
       <c r="I1129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1129">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1130" spans="1:10">
@@ -36742,13 +36742,13 @@
         <v>64</v>
       </c>
       <c r="G1130">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1130">
         <v>18</v>
       </c>
       <c r="I1130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J1130" t="s">
         <v>21</v>
@@ -36902,13 +36902,13 @@
         <v>64</v>
       </c>
       <c r="G1135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1135">
         <v>0</v>
       </c>
       <c r="I1135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1135">
         <v>0</v>
@@ -36966,13 +36966,13 @@
         <v>64</v>
       </c>
       <c r="G1137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1137">
         <v>0</v>
       </c>
       <c r="I1137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1137">
         <v>0</v>
@@ -36998,13 +36998,13 @@
         <v>64</v>
       </c>
       <c r="G1138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H1138">
         <v>0</v>
       </c>
       <c r="I1138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1138" t="s">
         <v>21</v>
@@ -37126,13 +37126,13 @@
         <v>64</v>
       </c>
       <c r="G1142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1142">
         <v>0</v>
       </c>
       <c r="I1142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1142">
         <v>0</v>
@@ -37158,13 +37158,13 @@
         <v>64</v>
       </c>
       <c r="G1143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H1143">
         <v>0</v>
       </c>
       <c r="I1143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1143" t="s">
         <v>21</v>
@@ -37254,16 +37254,16 @@
         <v>64</v>
       </c>
       <c r="G1146">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1146">
         <v>5</v>
       </c>
       <c r="I1146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1146">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1147" spans="1:10">
@@ -37318,13 +37318,13 @@
         <v>64</v>
       </c>
       <c r="G1148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1148">
         <v>5</v>
       </c>
       <c r="I1148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1148" t="s">
         <v>21</v>
@@ -37350,13 +37350,13 @@
         <v>64</v>
       </c>
       <c r="G1149">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1149">
         <v>2</v>
       </c>
       <c r="I1149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1149">
         <v>2</v>
@@ -37414,13 +37414,13 @@
         <v>64</v>
       </c>
       <c r="G1151">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1151">
         <v>2</v>
       </c>
       <c r="I1151">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1151" t="s">
         <v>21</v>
@@ -37510,16 +37510,16 @@
         <v>64</v>
       </c>
       <c r="G1154">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1154">
         <v>2</v>
       </c>
       <c r="I1154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J1154">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1155" spans="1:10">
@@ -37574,7 +37574,7 @@
         <v>64</v>
       </c>
       <c r="G1156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H1156">
         <v>3</v>
@@ -37606,13 +37606,13 @@
         <v>79</v>
       </c>
       <c r="G1157">
-        <v>0.5636363636363636</v>
+        <v>0.8444444444444444</v>
       </c>
       <c r="H1157">
         <v>0.8958333333333334</v>
       </c>
       <c r="I1157">
-        <v>0.3321969696969698</v>
+        <v>0.05138888888888893</v>
       </c>
       <c r="J1157" t="s">
         <v>21</v>
@@ -37638,13 +37638,13 @@
         <v>79</v>
       </c>
       <c r="G1158">
-        <v>1.96551724137931</v>
+        <v>3.15</v>
       </c>
       <c r="H1158">
         <v>2.37037037037037</v>
       </c>
       <c r="I1158">
-        <v>0.40485312899106</v>
+        <v>0.7796296296296297</v>
       </c>
       <c r="J1158" t="s">
         <v>21</v>
@@ -38086,13 +38086,13 @@
         <v>12</v>
       </c>
       <c r="G1172">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H1172">
         <v>16</v>
       </c>
       <c r="I1172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1172">
         <v>5</v>
@@ -38118,13 +38118,13 @@
         <v>12</v>
       </c>
       <c r="G1173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H1173">
         <v>5</v>
       </c>
       <c r="I1173">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J1173">
         <v>0</v>
@@ -38182,13 +38182,13 @@
         <v>12</v>
       </c>
       <c r="G1175">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H1175">
         <v>2</v>
       </c>
       <c r="I1175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1175">
         <v>0</v>
@@ -38214,13 +38214,13 @@
         <v>12</v>
       </c>
       <c r="G1176">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1176">
         <v>25</v>
       </c>
       <c r="I1176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J1176" t="s">
         <v>21</v>
@@ -38374,13 +38374,13 @@
         <v>12</v>
       </c>
       <c r="G1181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H1181">
         <v>1</v>
       </c>
       <c r="I1181">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1181">
         <v>1</v>
@@ -38566,13 +38566,13 @@
         <v>12</v>
       </c>
       <c r="G1187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1187">
         <v>3</v>
       </c>
       <c r="I1187">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1187" t="s">
         <v>21</v>
@@ -38630,13 +38630,13 @@
         <v>12</v>
       </c>
       <c r="G1189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1189">
         <v>2</v>
       </c>
       <c r="I1189">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J1189">
         <v>0</v>
@@ -38694,16 +38694,16 @@
         <v>12</v>
       </c>
       <c r="G1191">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H1191">
         <v>2</v>
       </c>
       <c r="I1191">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J1191">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1192" spans="1:10">
@@ -38726,13 +38726,13 @@
         <v>12</v>
       </c>
       <c r="G1192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H1192">
         <v>4</v>
       </c>
       <c r="I1192">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1192" t="s">
         <v>21</v>
@@ -38854,13 +38854,13 @@
         <v>12</v>
       </c>
       <c r="G1196">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H1196">
         <v>22</v>
       </c>
       <c r="I1196">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J1196">
         <v>14</v>
@@ -38886,13 +38886,13 @@
         <v>12</v>
       </c>
       <c r="G1197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H1197">
         <v>0</v>
       </c>
       <c r="I1197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J1197">
         <v>0</v>
@@ -38950,13 +38950,13 @@
         <v>12</v>
       </c>
       <c r="G1199">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H1199">
         <v>25</v>
       </c>
       <c r="I1199">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J1199" t="s">
         <v>21</v>
@@ -39142,13 +39142,13 @@
         <v>12</v>
       </c>
       <c r="G1205">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1205">
         <v>6</v>
       </c>
       <c r="I1205">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J1205">
         <v>5</v>
@@ -39206,13 +39206,13 @@
         <v>12</v>
       </c>
       <c r="G1207">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H1207">
         <v>7</v>
       </c>
       <c r="I1207">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J1207" t="s">
         <v>21</v>
@@ -39238,13 +39238,13 @@
         <v>64</v>
       </c>
       <c r="G1208">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H1208">
         <v>6</v>
       </c>
       <c r="I1208">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J1208">
         <v>1</v>
@@ -39366,13 +39366,13 @@
         <v>64</v>
       </c>
       <c r="G1212">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H1212">
         <v>12</v>
       </c>
       <c r="I1212">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J1212" t="s">
         <v>21</v>
@@ -39494,16 +39494,16 @@
         <v>64</v>
       </c>
       <c r="G1216">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1216">
         <v>6</v>
       </c>
       <c r="I1216">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1216">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="1217" spans="1:10">
@@ -39558,13 +39558,13 @@
         <v>64</v>
       </c>
       <c r="G1218">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1218">
         <v>6</v>
       </c>
       <c r="I1218">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1218">
         <v>3</v>
@@ -39590,13 +39590,13 @@
         <v>64</v>
       </c>
       <c r="G1219">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H1219">
         <v>12</v>
       </c>
       <c r="I1219">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1219" t="s">
         <v>21</v>
@@ -39750,13 +39750,13 @@
         <v>64</v>
       </c>
       <c r="G1224">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1224">
         <v>1</v>
       </c>
       <c r="I1224">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1224">
         <v>0</v>
@@ -39846,13 +39846,13 @@
         <v>64</v>
       </c>
       <c r="G1227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H1227">
         <v>6</v>
       </c>
       <c r="I1227">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J1227" t="s">
         <v>21</v>
@@ -39974,13 +39974,13 @@
         <v>64</v>
       </c>
       <c r="G1231">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1231">
         <v>1</v>
       </c>
       <c r="I1231">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1231">
         <v>0</v>
@@ -40006,13 +40006,13 @@
         <v>64</v>
       </c>
       <c r="G1232">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H1232">
         <v>1</v>
       </c>
       <c r="I1232">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J1232" t="s">
         <v>21</v>
@@ -40102,13 +40102,13 @@
         <v>64</v>
       </c>
       <c r="G1235">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1235">
         <v>4</v>
       </c>
       <c r="I1235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1235">
         <v>0</v>
@@ -40166,13 +40166,13 @@
         <v>64</v>
       </c>
       <c r="G1237">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H1237">
         <v>4</v>
       </c>
       <c r="I1237">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1237" t="s">
         <v>21</v>
@@ -40198,13 +40198,13 @@
         <v>64</v>
       </c>
       <c r="G1238">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1238">
         <v>16</v>
       </c>
       <c r="I1238">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1238">
         <v>6</v>
@@ -40262,13 +40262,13 @@
         <v>64</v>
       </c>
       <c r="G1240">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="H1240">
         <v>16</v>
       </c>
       <c r="I1240">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J1240" t="s">
         <v>21</v>
@@ -40358,16 +40358,16 @@
         <v>64</v>
       </c>
       <c r="G1243">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1243">
         <v>2</v>
       </c>
       <c r="I1243">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1243">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1244" spans="1:10">
@@ -40422,13 +40422,13 @@
         <v>64</v>
       </c>
       <c r="G1245">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H1245">
         <v>2</v>
       </c>
       <c r="I1245">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J1245" t="s">
         <v>21</v>
@@ -40454,13 +40454,13 @@
         <v>79</v>
       </c>
       <c r="G1246">
-        <v>1.239130434782609</v>
+        <v>1.081632653061225</v>
       </c>
       <c r="H1246">
         <v>1.170212765957447</v>
       </c>
       <c r="I1246">
-        <v>0.06891766882516182</v>
+        <v>0.08858011289622225</v>
       </c>
       <c r="J1246" t="s">
         <v>21</v>
@@ -40486,13 +40486,13 @@
         <v>79</v>
       </c>
       <c r="G1247">
-        <v>2.32258064516129</v>
+        <v>2.290322580645161</v>
       </c>
       <c r="H1247">
         <v>3.636363636363636</v>
       </c>
       <c r="I1247">
-        <v>1.313782991202346</v>
+        <v>1.346041055718475</v>
       </c>
       <c r="J1247" t="s">
         <v>21</v>
